--- a/data/raw/DataLaboratoryArticle.xlsx
+++ b/data/raw/DataLaboratoryArticle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correoitmedu-my.sharepoint.com/personal/santiagoguzman251060_correo_itm_edu_co/Documents/Escritorio/Maestria/Programacion cientifica/Fault diagnosis model for early warnings in electrical transformers/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="8_{350F6774-720D-4343-9558-983F834F92E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F778258B-C238-44F7-AA23-F1DAA2BDBF4C}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="8_{350F6774-720D-4343-9558-983F834F92E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DFAC754-1C5F-412E-A49B-C59B05EC7B66}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3059,7 +3059,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3068,10 +3071,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3083,19 +3083,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3104,11 +3095,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3681,21 +3681,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:BH710"/>
+  <dimension ref="A1:BG710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AP16" sqref="AP16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="6" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="32.5546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="46" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" customWidth="1"/>
+    <col min="7" max="7" width="46" customWidth="1"/>
     <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
@@ -3738,198 +3738,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="7" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="20" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="7" t="s">
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7" t="s">
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7" t="s">
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7" t="s">
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7" t="s">
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AR1" s="7"/>
+      <c r="AR1" s="11"/>
       <c r="AS1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="AT1" s="13"/>
       <c r="AU1" s="14"/>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="AW1" s="4"/>
       <c r="AX1" s="4"/>
       <c r="AY1" s="4"/>
       <c r="AZ1" s="4"/>
-      <c r="BA1" s="10" t="s">
+      <c r="BA1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BB1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="16" t="s">
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BE1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BF1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BG1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AD2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AF2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AG2" s="19" t="s">
         <v>46</v>
       </c>
       <c r="AH2" s="12" t="s">
@@ -3941,78 +3941,78 @@
       <c r="AL2" s="13"/>
       <c r="AM2" s="13"/>
       <c r="AN2" s="14"/>
-      <c r="AO2" s="22" t="s">
+      <c r="AO2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AP2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AR2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AS2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AT2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AU2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AV2" s="11"/>
+      <c r="AV2" s="21"/>
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
       <c r="AY2" s="5"/>
       <c r="AZ2" s="5"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="15" t="s">
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" s="15" t="s">
+      <c r="BC2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
     </row>
     <row r="3" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="19"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="20"/>
       <c r="AH3" s="4" t="s">
         <v>55</v>
       </c>
@@ -4034,25 +4034,25 @@
       <c r="AN3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
       <c r="AW3" s="5"/>
       <c r="AX3" s="5"/>
       <c r="AY3" s="5"/>
       <c r="AZ3" s="5"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="10"/>
-      <c r="BC3" s="10"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
+      <c r="BA3" s="21"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="21"/>
+      <c r="BF3" s="21"/>
+      <c r="BG3" s="21"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -83181,40 +83181,21 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="BA1:BA3"/>
+    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="BG1:BG3"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD1:BD3"/>
+    <mergeCell ref="BE1:BE3"/>
+    <mergeCell ref="BF1:BF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AQ2:AQ3"/>
@@ -83226,21 +83207,40 @@
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="BA1:BA3"/>
-    <mergeCell ref="AV1:AV3"/>
-    <mergeCell ref="BG1:BG3"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD1:BD3"/>
-    <mergeCell ref="BE1:BE3"/>
-    <mergeCell ref="BF1:BF3"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/DataLaboratoryArticle.xlsx
+++ b/data/raw/DataLaboratoryArticle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correoitmedu-my.sharepoint.com/personal/santiagoguzman251060_correo_itm_edu_co/Documents/Escritorio/Maestria/Programacion cientifica/Fault diagnosis model for early warnings in electrical transformers/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="8_{350F6774-720D-4343-9558-983F834F92E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DFAC754-1C5F-412E-A49B-C59B05EC7B66}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{350F6774-720D-4343-9558-983F834F92E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2D18BE6-12DF-4C3C-9E48-545D1DAF9000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3059,10 +3059,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3071,7 +3068,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3083,10 +3083,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3095,20 +3104,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3683,8 +3683,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:BG710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3737,199 +3737,199 @@
     <col min="59" max="59" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="11" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="17" t="s">
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="11" t="s">
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11" t="s">
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11" t="s">
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11" t="s">
+      <c r="AH1" s="7"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="7"/>
+      <c r="AK1" s="7"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="7"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11" t="s">
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AR1" s="11"/>
+      <c r="AR1" s="7"/>
       <c r="AS1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="AT1" s="13"/>
       <c r="AU1" s="14"/>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="10" t="s">
         <v>10</v>
       </c>
       <c r="AW1" s="4"/>
       <c r="AX1" s="4"/>
       <c r="AY1" s="4"/>
       <c r="AZ1" s="4"/>
-      <c r="BA1" s="8" t="s">
+      <c r="BA1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BB1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="22" t="s">
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BE1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BF1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BG1" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AA2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AB2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AG2" s="18" t="s">
         <v>46</v>
       </c>
       <c r="AH2" s="12" t="s">
@@ -3941,78 +3941,78 @@
       <c r="AL2" s="13"/>
       <c r="AM2" s="13"/>
       <c r="AN2" s="14"/>
-      <c r="AO2" s="15" t="s">
+      <c r="AO2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AP2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AR2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AS2" s="8" t="s">
+      <c r="AS2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AV2" s="21"/>
+      <c r="AV2" s="11"/>
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
       <c r="AY2" s="5"/>
       <c r="AZ2" s="5"/>
-      <c r="BA2" s="21"/>
-      <c r="BB2" s="7" t="s">
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" s="7" t="s">
+      <c r="BC2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="21"/>
-      <c r="BF2" s="21"/>
-      <c r="BG2" s="21"/>
+      <c r="BD2" s="17"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
     </row>
     <row r="3" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="20"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="19"/>
       <c r="AH3" s="4" t="s">
         <v>55</v>
       </c>
@@ -4034,25 +4034,25 @@
       <c r="AN3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="21"/>
-      <c r="AT3" s="21"/>
-      <c r="AU3" s="21"/>
-      <c r="AV3" s="21"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
       <c r="AW3" s="5"/>
       <c r="AX3" s="5"/>
       <c r="AY3" s="5"/>
       <c r="AZ3" s="5"/>
-      <c r="BA3" s="21"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="23"/>
-      <c r="BE3" s="21"/>
-      <c r="BF3" s="21"/>
-      <c r="BG3" s="21"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="17"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -83181,21 +83181,40 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AS2:AS3"/>
-    <mergeCell ref="BA1:BA3"/>
-    <mergeCell ref="AV1:AV3"/>
-    <mergeCell ref="BG1:BG3"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD1:BD3"/>
-    <mergeCell ref="BE1:BE3"/>
-    <mergeCell ref="BF1:BF3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AQ2:AQ3"/>
@@ -83207,40 +83226,21 @@
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="BA1:BA3"/>
+    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="BG1:BG3"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD1:BD3"/>
+    <mergeCell ref="BE1:BE3"/>
+    <mergeCell ref="BF1:BF3"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AS2:AS3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/raw/DataLaboratoryArticle.xlsx
+++ b/data/raw/DataLaboratoryArticle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correoitmedu-my.sharepoint.com/personal/santiagoguzman251060_correo_itm_edu_co/Documents/Escritorio/Maestria/Programacion cientifica/Fault diagnosis model for early warnings in electrical transformers/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="8_{350F6774-720D-4343-9558-983F834F92E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2D18BE6-12DF-4C3C-9E48-545D1DAF9000}"/>
+  <xr:revisionPtr revIDLastSave="262" documentId="8_{350F6774-720D-4343-9558-983F834F92E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{766D9FF8-055B-4B9A-8A83-076FA4939D6E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3059,7 +3059,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3068,10 +3071,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3083,19 +3083,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3104,11 +3095,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" justifyLastLine="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3683,8 +3683,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:BG710"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3737,199 +3737,199 @@
     <col min="59" max="59" width="6.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="1" customFormat="1" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+    <row r="1" spans="1:59" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="7" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="20" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="7" t="s">
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7" t="s">
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7" t="s">
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7" t="s">
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7" t="s">
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AR1" s="7"/>
+      <c r="AR1" s="11"/>
       <c r="AS1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="AT1" s="13"/>
       <c r="AU1" s="14"/>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="8" t="s">
         <v>10</v>
       </c>
       <c r="AW1" s="4"/>
       <c r="AX1" s="4"/>
       <c r="AY1" s="4"/>
       <c r="AZ1" s="4"/>
-      <c r="BA1" s="10" t="s">
+      <c r="BA1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BB1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="BC1" s="15"/>
-      <c r="BD1" s="16" t="s">
+      <c r="BC1" s="7"/>
+      <c r="BD1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BE1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BF1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BG1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AD2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AF2" s="15" t="s">
+      <c r="AF2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AG2" s="19" t="s">
         <v>46</v>
       </c>
       <c r="AH2" s="12" t="s">
@@ -3941,78 +3941,78 @@
       <c r="AL2" s="13"/>
       <c r="AM2" s="13"/>
       <c r="AN2" s="14"/>
-      <c r="AO2" s="22" t="s">
+      <c r="AO2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AP2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AR2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AS2" s="10" t="s">
+      <c r="AS2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AT2" s="10" t="s">
+      <c r="AT2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AU2" s="10" t="s">
+      <c r="AU2" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AV2" s="11"/>
+      <c r="AV2" s="21"/>
       <c r="AW2" s="5"/>
       <c r="AX2" s="5"/>
       <c r="AY2" s="5"/>
       <c r="AZ2" s="5"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="15" t="s">
+      <c r="BA2" s="21"/>
+      <c r="BB2" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="BC2" s="15" t="s">
+      <c r="BC2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="21"/>
+      <c r="BF2" s="21"/>
+      <c r="BG2" s="21"/>
     </row>
     <row r="3" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="19"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="20"/>
       <c r="AH3" s="4" t="s">
         <v>55</v>
       </c>
@@ -4034,25 +4034,25 @@
       <c r="AN3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="11"/>
-      <c r="AT3" s="11"/>
-      <c r="AU3" s="11"/>
-      <c r="AV3" s="11"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
       <c r="AW3" s="5"/>
       <c r="AX3" s="5"/>
       <c r="AY3" s="5"/>
       <c r="AZ3" s="5"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="10"/>
-      <c r="BC3" s="10"/>
-      <c r="BD3" s="17"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
+      <c r="BA3" s="21"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="21"/>
+      <c r="BF3" s="21"/>
+      <c r="BG3" s="21"/>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -83181,40 +83181,21 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="AO1:AP1"/>
-    <mergeCell ref="AG1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AP2:AP3"/>
-    <mergeCell ref="AO2:AO3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="L1:R1"/>
-    <mergeCell ref="AB1:AF1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AR2:AR3"/>
+    <mergeCell ref="AT2:AT3"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AU2:AU3"/>
+    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="BA1:BA3"/>
+    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="BG1:BG3"/>
+    <mergeCell ref="BB1:BC1"/>
+    <mergeCell ref="BB2:BB3"/>
+    <mergeCell ref="BC2:BC3"/>
+    <mergeCell ref="BD1:BD3"/>
+    <mergeCell ref="BE1:BE3"/>
+    <mergeCell ref="BF1:BF3"/>
     <mergeCell ref="AA2:AA3"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="AQ2:AQ3"/>
@@ -83226,21 +83207,40 @@
     <mergeCell ref="AD2:AD3"/>
     <mergeCell ref="AC2:AC3"/>
     <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="BA1:BA3"/>
-    <mergeCell ref="AV1:AV3"/>
-    <mergeCell ref="BG1:BG3"/>
-    <mergeCell ref="BB1:BC1"/>
-    <mergeCell ref="BB2:BB3"/>
-    <mergeCell ref="BC2:BC3"/>
-    <mergeCell ref="BD1:BD3"/>
-    <mergeCell ref="BE1:BE3"/>
-    <mergeCell ref="BF1:BF3"/>
-    <mergeCell ref="AQ1:AR1"/>
-    <mergeCell ref="AR2:AR3"/>
-    <mergeCell ref="AT2:AT3"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AU2:AU3"/>
-    <mergeCell ref="AS2:AS3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="L1:R1"/>
+    <mergeCell ref="AB1:AF1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="AO1:AP1"/>
+    <mergeCell ref="AG1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AP2:AP3"/>
+    <mergeCell ref="AO2:AO3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
